--- a/Models RMSE.xlsx
+++ b/Models RMSE.xlsx
@@ -5,27 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snrse\Desktop\Model CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snrse\Desktop\FALL 2018-2019\Machine Learning\ML-Project-2-Rec-Sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1424446-1365-4B86-A545-9D21D4C53623}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4072623-EA7B-4775-81EC-4AF1A5850E74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24972" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Model</t>
   </si>
@@ -58,6 +64,60 @@
   </si>
   <si>
     <t>CV (5)</t>
+  </si>
+  <si>
+    <t>MF SGD</t>
+  </si>
+  <si>
+    <t>MF ALS</t>
+  </si>
+  <si>
+    <t>PyFM</t>
+  </si>
+  <si>
+    <t>SVD</t>
+  </si>
+  <si>
+    <t>SVD++</t>
+  </si>
+  <si>
+    <t>KNN Item</t>
+  </si>
+  <si>
+    <t>PySpark</t>
+  </si>
+  <si>
+    <t>#_of_factors:20, iter: 200, init_lear_rate: 0.001</t>
+  </si>
+  <si>
+    <t>Split(%33)</t>
+  </si>
+  <si>
+    <t>rank: 20, lambda: 0.1, iter: 24</t>
+  </si>
+  <si>
+    <t>CV(3)</t>
+  </si>
+  <si>
+    <t>n_epoch: 30, lear_rate_all: 0.01, reg_all: 0.01</t>
+  </si>
+  <si>
+    <t>n_epoch: 30, lear_rate_all: 0.001, reg_all: 0.001</t>
+  </si>
+  <si>
+    <t>KNN User</t>
+  </si>
+  <si>
+    <t>k: 300, n_epoch: 30, pearson_baseline</t>
+  </si>
+  <si>
+    <t>gamma: 0.008, #_of_fetures: 10, lambda_user: 0.03, lambda_item: 0.35, num_epoch: 30</t>
+  </si>
+  <si>
+    <t>Split(%10)</t>
+  </si>
+  <si>
+    <t>num_feat: 20, lambda_user: 0.1, lambda_items: 0.7, stop_ cri: 10^-4</t>
   </si>
 </sst>
 </file>
@@ -415,7 +475,7 @@
   <dimension ref="C2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,8 +483,9 @@
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="74.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
@@ -508,16 +569,32 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.0005839999999999</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.03484</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
@@ -526,10 +603,18 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="4"/>
@@ -538,10 +623,18 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.2485999999999999</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
@@ -556,16 +649,32 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
@@ -574,16 +683,32 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.99705600000000005</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.996973</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>

--- a/Models RMSE.xlsx
+++ b/Models RMSE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snrse\Desktop\FALL 2018-2019\Machine Learning\ML-Project-2-Rec-Sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snrse\Desktop\Model CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4072623-EA7B-4775-81EC-4AF1A5850E74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB8813C-43C9-4199-BF45-9D3CAFEA9964}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24972" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Model</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>num_feat: 20, lambda_user: 0.1, lambda_items: 0.7, stop_ cri: 10^-4</t>
+  </si>
+  <si>
+    <t>BLEND</t>
+  </si>
+  <si>
+    <t>0.990 56</t>
+  </si>
+  <si>
+    <t>SVD++ is 0.9951 , seed:56, split(%50)</t>
   </si>
 </sst>
 </file>
@@ -475,14 +484,14 @@
   <dimension ref="C2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
@@ -717,10 +726,16 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
